--- a/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T13:30:27+00:00</t>
+    <t>2025-01-31T15:48:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T15:48:31+00:00</t>
+    <t>2025-01-31T16:36:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T16:36:09+00:00</t>
+    <t>2025-01-31T16:52:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T16:52:44+00:00</t>
+    <t>2025-02-03T13:34:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T13:34:22+00:00</t>
+    <t>2025-02-03T13:56:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T13:56:30+00:00</t>
+    <t>2025-02-03T16:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T16:39:55+00:00</t>
+    <t>2025-02-03T16:55:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T16:55:26+00:00</t>
+    <t>2025-02-04T08:34:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T08:34:23+00:00</t>
+    <t>2025-02-04T08:52:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T08:52:18+00:00</t>
+    <t>2025-02-04T09:36:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$70</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2365" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="422">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:36:46+00:00</t>
+    <t>2025-02-04T10:02:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -451,6 +451,12 @@
   </si>
   <si>
     <t>fr-canonical</t>
+  </si>
+  <si>
+    <t>HealthcareService.meta.profile:sas-cpts-healthcareservice-aggregator</t>
+  </si>
+  <si>
+    <t>sas-cpts-healthcareservice-aggregator</t>
   </si>
   <si>
     <t>HealthcareService.meta.security</t>
@@ -1635,7 +1641,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL69"/>
+  <dimension ref="A1:AL70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1644,9 +1650,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.1328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="65.68359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="49.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="36.5078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2880,9 +2886,11 @@
         <v>140</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>74</v>
       </c>
@@ -2891,7 +2899,7 @@
         <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>74</v>
@@ -2903,16 +2911,16 @@
         <v>84</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2923,7 +2931,7 @@
         <v>74</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>74</v>
@@ -2938,13 +2946,13 @@
         <v>74</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>74</v>
@@ -2962,7 +2970,7 @@
         <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -2985,10 +2993,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3011,16 +3019,16 @@
         <v>84</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3046,13 +3054,13 @@
         <v>74</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>74</v>
@@ -3070,7 +3078,7 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -3093,10 +3101,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3107,28 +3115,28 @@
         <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3154,13 +3162,13 @@
         <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>74</v>
@@ -3178,13 +3186,13 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>74</v>
@@ -3201,10 +3209,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3221,22 +3229,22 @@
         <v>74</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3262,13 +3270,13 @@
         <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>74</v>
@@ -3286,7 +3294,7 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -3309,14 +3317,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>172</v>
+        <v>74</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3335,16 +3343,16 @@
         <v>74</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3370,13 +3378,13 @@
         <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>74</v>
+        <v>171</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>74</v>
@@ -3394,7 +3402,7 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -3409,7 +3417,7 @@
         <v>95</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>74</v>
@@ -3417,21 +3425,21 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>74</v>
@@ -3443,16 +3451,16 @@
         <v>74</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3502,22 +3510,22 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>74</v>
@@ -3525,14 +3533,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3551,15 +3559,17 @@
         <v>74</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>74</v>
@@ -3596,17 +3606,19 @@
         <v>74</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AC18" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -3618,10 +3630,10 @@
         <v>74</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>74</v>
+        <v>188</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>74</v>
@@ -3629,14 +3641,12 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
         <v>74</v>
       </c>
@@ -3657,13 +3667,13 @@
         <v>74</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>193</v>
+        <v>104</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3702,19 +3712,17 @@
         <v>74</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -3723,7 +3731,7 @@
         <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>196</v>
+        <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>112</v>
@@ -3737,14 +3745,16 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="D20" t="s" s="2">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3757,26 +3767,22 @@
         <v>74</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>74</v>
       </c>
@@ -3824,7 +3830,7 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -3833,13 +3839,13 @@
         <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>112</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>186</v>
+        <v>74</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>74</v>
@@ -3847,14 +3853,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3867,22 +3873,26 @@
         <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>74</v>
       </c>
@@ -3930,7 +3940,7 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -3942,21 +3952,21 @@
         <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>207</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3967,7 +3977,7 @@
         <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>74</v>
@@ -3976,16 +3986,16 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>97</v>
+        <v>205</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>98</v>
+        <v>206</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>99</v>
+        <v>207</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4036,44 +4046,44 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>100</v>
+        <v>204</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>101</v>
+        <v>208</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>74</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>74</v>
@@ -4085,17 +4095,15 @@
         <v>74</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>74</v>
@@ -4132,31 +4140,31 @@
         <v>74</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>101</v>
@@ -4167,46 +4175,44 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>211</v>
+        <v>105</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>212</v>
+        <v>106</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>74</v>
       </c>
@@ -4230,44 +4236,46 @@
         <v>74</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="Y24" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z24" t="s" s="2">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>217</v>
+        <v>111</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
@@ -4275,10 +4283,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4295,25 +4303,25 @@
         <v>74</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>220</v>
+        <v>165</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>74</v>
@@ -4338,13 +4346,11 @@
         <v>74</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>74</v>
@@ -4362,7 +4368,7 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4377,7 +4383,7 @@
         <v>95</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>74</v>
@@ -4385,10 +4391,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4411,19 +4417,19 @@
         <v>84</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>125</v>
+        <v>222</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>74</v>
@@ -4436,7 +4442,7 @@
         <v>74</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>233</v>
+        <v>74</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>74</v>
@@ -4448,13 +4454,13 @@
         <v>74</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>74</v>
+        <v>227</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>74</v>
+        <v>228</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>74</v>
@@ -4472,7 +4478,7 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4487,7 +4493,7 @@
         <v>95</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>74</v>
@@ -4495,10 +4501,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4521,18 +4527,20 @@
         <v>84</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>74</v>
       </c>
@@ -4544,7 +4552,7 @@
         <v>74</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>74</v>
@@ -4580,7 +4588,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4595,7 +4603,7 @@
         <v>95</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>74</v>
@@ -4603,10 +4611,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4629,15 +4637,17 @@
         <v>84</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>244</v>
+        <v>97</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>74</v>
@@ -4650,7 +4660,7 @@
         <v>74</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>74</v>
+        <v>242</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>74</v>
@@ -4686,7 +4696,7 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -4701,7 +4711,7 @@
         <v>95</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>74</v>
@@ -4709,10 +4719,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4735,17 +4745,15 @@
         <v>84</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>74</v>
@@ -4794,7 +4802,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -4809,7 +4817,7 @@
         <v>95</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>74</v>
@@ -4817,10 +4825,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4837,30 +4845,28 @@
         <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q30" t="s" s="2">
-        <v>261</v>
-      </c>
+      <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
         <v>74</v>
       </c>
@@ -4919,18 +4925,18 @@
         <v>95</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>263</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4938,37 +4944,39 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="H31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="R31" t="s" s="2">
         <v>74</v>
       </c>
@@ -5012,7 +5020,7 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -5027,32 +5035,32 @@
         <v>95</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>74</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>271</v>
+        <v>74</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>83</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>74</v>
@@ -5061,16 +5069,16 @@
         <v>84</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5096,13 +5104,13 @@
         <v>74</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>275</v>
+        <v>74</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>276</v>
+        <v>74</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>74</v>
@@ -5120,13 +5128,13 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>74</v>
@@ -5135,29 +5143,29 @@
         <v>95</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>278</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>74</v>
@@ -5169,15 +5177,17 @@
         <v>84</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>74</v>
@@ -5202,13 +5212,13 @@
         <v>74</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>74</v>
@@ -5226,7 +5236,7 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5241,22 +5251,22 @@
         <v>95</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>74</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>74</v>
+        <v>282</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5275,13 +5285,13 @@
         <v>84</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5308,11 +5318,13 @@
         <v>74</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="Y34" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="Z34" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>74</v>
@@ -5330,7 +5342,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5345,7 +5357,7 @@
         <v>95</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>74</v>
@@ -5353,10 +5365,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5379,13 +5391,13 @@
         <v>84</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>291</v>
+        <v>222</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5412,13 +5424,11 @@
         <v>74</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="Y35" s="2"/>
       <c r="Z35" t="s" s="2">
-        <v>74</v>
+        <v>291</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>74</v>
@@ -5436,7 +5446,7 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -5451,18 +5461,18 @@
         <v>95</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>295</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5473,7 +5483,7 @@
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
@@ -5485,13 +5495,13 @@
         <v>84</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>97</v>
+        <v>293</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5542,13 +5552,13 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>74</v>
@@ -5557,18 +5567,18 @@
         <v>95</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>74</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5594,14 +5604,12 @@
         <v>97</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>74</v>
@@ -5650,7 +5658,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5665,7 +5673,7 @@
         <v>95</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>74</v>
@@ -5673,10 +5681,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5696,18 +5704,20 @@
         <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>306</v>
+        <v>97</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>74</v>
@@ -5756,7 +5766,7 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -5771,7 +5781,7 @@
         <v>95</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>74</v>
@@ -5779,10 +5789,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5802,16 +5812,16 @@
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5862,7 +5872,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -5877,7 +5887,7 @@
         <v>95</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
@@ -5885,10 +5895,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5899,7 +5909,7 @@
         <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>74</v>
@@ -5908,20 +5918,18 @@
         <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>74</v>
@@ -5970,22 +5978,22 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>196</v>
+        <v>74</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>320</v>
+        <v>95</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>74</v>
@@ -5993,10 +6001,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6019,16 +6027,16 @@
         <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6078,7 +6086,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6087,13 +6095,13 @@
         <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>95</v>
+        <v>322</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
@@ -6101,10 +6109,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6127,16 +6135,16 @@
         <v>74</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>220</v>
+        <v>293</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6162,13 +6170,13 @@
         <v>74</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>329</v>
+        <v>74</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>331</v>
+        <v>74</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>74</v>
@@ -6186,7 +6194,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6201,7 +6209,7 @@
         <v>95</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>74</v>
@@ -6209,10 +6217,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6235,15 +6243,17 @@
         <v>74</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>334</v>
+        <v>222</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>74</v>
@@ -6268,13 +6278,13 @@
         <v>74</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>74</v>
+        <v>331</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>74</v>
+        <v>333</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>74</v>
@@ -6292,7 +6302,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -6307,7 +6317,7 @@
         <v>95</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>74</v>
+        <v>334</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>74</v>
@@ -6315,10 +6325,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6329,7 +6339,7 @@
         <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>74</v>
@@ -6341,13 +6351,13 @@
         <v>74</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>97</v>
+        <v>336</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>98</v>
+        <v>337</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>99</v>
+        <v>338</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6398,22 +6408,22 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>100</v>
+        <v>335</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>74</v>
@@ -6421,21 +6431,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>74</v>
@@ -6447,17 +6457,15 @@
         <v>74</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>74</v>
@@ -6506,19 +6514,19 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>101</v>
@@ -6529,14 +6537,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>340</v>
+        <v>103</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6549,26 +6557,24 @@
         <v>74</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>104</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>341</v>
+        <v>105</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>342</v>
+        <v>106</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="O46" t="s" s="2">
-        <v>200</v>
-      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>74</v>
       </c>
@@ -6616,7 +6622,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>343</v>
+        <v>111</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -6631,7 +6637,7 @@
         <v>112</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>186</v>
+        <v>101</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>74</v>
@@ -6639,42 +6645,46 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>74</v>
+        <v>342</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>220</v>
+        <v>104</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>74</v>
       </c>
@@ -6698,10 +6708,10 @@
         <v>74</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>347</v>
+        <v>74</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>74</v>
@@ -6722,22 +6732,22 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>332</v>
+        <v>188</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>74</v>
@@ -6745,10 +6755,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6771,17 +6781,15 @@
         <v>74</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>306</v>
+        <v>222</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>74</v>
@@ -6806,10 +6814,10 @@
         <v>74</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>74</v>
+        <v>349</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>74</v>
@@ -6830,7 +6838,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -6845,7 +6853,7 @@
         <v>95</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>74</v>
@@ -6853,10 +6861,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6867,7 +6875,7 @@
         <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>74</v>
@@ -6879,16 +6887,16 @@
         <v>74</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>220</v>
+        <v>308</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -6914,13 +6922,13 @@
         <v>74</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>357</v>
+        <v>74</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>358</v>
+        <v>74</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>74</v>
@@ -6938,13 +6946,13 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>74</v>
@@ -6953,7 +6961,7 @@
         <v>95</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>74</v>
@@ -6961,10 +6969,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6987,16 +6995,16 @@
         <v>74</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7022,13 +7030,13 @@
         <v>74</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>74</v>
+        <v>360</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>74</v>
@@ -7046,7 +7054,7 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7061,7 +7069,7 @@
         <v>95</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>74</v>
@@ -7069,10 +7077,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7095,16 +7103,16 @@
         <v>74</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7130,13 +7138,13 @@
         <v>74</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>168</v>
+        <v>366</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>74</v>
@@ -7154,7 +7162,7 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7169,7 +7177,7 @@
         <v>95</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>74</v>
+        <v>361</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>74</v>
@@ -7177,10 +7185,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7203,15 +7211,17 @@
         <v>74</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>74</v>
@@ -7236,13 +7246,13 @@
         <v>74</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>372</v>
+        <v>170</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>373</v>
+        <v>171</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>74</v>
@@ -7260,7 +7270,7 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -7275,7 +7285,7 @@
         <v>95</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>359</v>
+        <v>74</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>74</v>
@@ -7283,10 +7293,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7297,7 +7307,7 @@
         <v>75</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>74</v>
@@ -7309,13 +7319,13 @@
         <v>74</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7342,13 +7352,13 @@
         <v>74</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>74</v>
+        <v>374</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>74</v>
+        <v>375</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>74</v>
@@ -7366,13 +7376,13 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>74</v>
@@ -7381,7 +7391,7 @@
         <v>95</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>74</v>
@@ -7389,10 +7399,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7403,7 +7413,7 @@
         <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>74</v>
@@ -7415,17 +7425,15 @@
         <v>74</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>334</v>
+        <v>259</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="M54" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>380</v>
-      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>74</v>
@@ -7474,13 +7482,13 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>74</v>
@@ -7489,7 +7497,7 @@
         <v>95</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>74</v>
@@ -7497,10 +7505,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7511,7 +7519,7 @@
         <v>75</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>74</v>
@@ -7523,15 +7531,17 @@
         <v>74</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>97</v>
+        <v>336</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>98</v>
+        <v>380</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>74</v>
@@ -7580,22 +7590,22 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>100</v>
+        <v>379</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>101</v>
+        <v>383</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>74</v>
@@ -7603,21 +7613,21 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>74</v>
@@ -7629,17 +7639,15 @@
         <v>74</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>74</v>
@@ -7688,19 +7696,19 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>101</v>
@@ -7711,14 +7719,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>340</v>
+        <v>103</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -7731,26 +7739,24 @@
         <v>74</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>104</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>341</v>
+        <v>105</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>342</v>
+        <v>106</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="O57" t="s" s="2">
-        <v>200</v>
-      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>74</v>
       </c>
@@ -7798,7 +7804,7 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>343</v>
+        <v>111</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -7813,7 +7819,7 @@
         <v>112</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>186</v>
+        <v>101</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>74</v>
@@ -7821,14 +7827,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>74</v>
+        <v>342</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -7841,22 +7847,26 @@
         <v>74</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>386</v>
+        <v>343</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>74</v>
       </c>
@@ -7880,13 +7890,13 @@
         <v>74</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>388</v>
+        <v>74</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>389</v>
+        <v>74</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>74</v>
@@ -7904,7 +7914,7 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>385</v>
+        <v>345</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -7916,10 +7926,10 @@
         <v>74</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>381</v>
+        <v>188</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>74</v>
@@ -7927,10 +7937,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7941,7 +7951,7 @@
         <v>75</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>74</v>
@@ -7953,13 +7963,13 @@
         <v>74</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>257</v>
+        <v>165</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7986,13 +7996,13 @@
         <v>74</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>74</v>
+        <v>390</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>74</v>
+        <v>391</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>74</v>
@@ -8010,13 +8020,13 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>74</v>
@@ -8025,7 +8035,7 @@
         <v>95</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>74</v>
@@ -8033,10 +8043,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8059,17 +8069,15 @@
         <v>74</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L60" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>397</v>
-      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>74</v>
@@ -8118,7 +8126,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8133,7 +8141,7 @@
         <v>95</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>74</v>
@@ -8141,10 +8149,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8167,16 +8175,16 @@
         <v>74</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="N61" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8226,7 +8234,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -8241,7 +8249,7 @@
         <v>95</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>74</v>
@@ -8249,10 +8257,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8263,7 +8271,7 @@
         <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>74</v>
@@ -8275,15 +8283,17 @@
         <v>74</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>334</v>
+        <v>396</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="M62" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N62" s="2"/>
+      <c r="N62" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>74</v>
@@ -8332,13 +8342,13 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>74</v>
@@ -8347,7 +8357,7 @@
         <v>95</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>74</v>
@@ -8355,10 +8365,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8369,7 +8379,7 @@
         <v>75</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>74</v>
@@ -8381,13 +8391,13 @@
         <v>74</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>97</v>
+        <v>336</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>98</v>
+        <v>404</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>99</v>
+        <v>405</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8438,22 +8448,22 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>100</v>
+        <v>403</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>101</v>
+        <v>383</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>74</v>
@@ -8461,21 +8471,21 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>74</v>
@@ -8487,17 +8497,15 @@
         <v>74</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>74</v>
@@ -8546,19 +8554,19 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>101</v>
@@ -8569,14 +8577,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>340</v>
+        <v>103</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -8589,26 +8597,24 @@
         <v>74</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>104</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>341</v>
+        <v>105</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>342</v>
+        <v>106</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="O65" t="s" s="2">
-        <v>200</v>
-      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>74</v>
       </c>
@@ -8656,7 +8662,7 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>343</v>
+        <v>111</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
@@ -8671,7 +8677,7 @@
         <v>112</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>186</v>
+        <v>101</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>74</v>
@@ -8679,42 +8685,46 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>74</v>
+        <v>342</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>408</v>
+        <v>343</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>74</v>
       </c>
@@ -8762,22 +8772,22 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>407</v>
+        <v>345</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>74</v>
@@ -8785,10 +8795,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8796,7 +8806,7 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>83</v>
@@ -8811,13 +8821,13 @@
         <v>74</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>244</v>
+        <v>97</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8868,10 +8878,10 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>83</v>
@@ -8883,7 +8893,7 @@
         <v>95</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>381</v>
+        <v>101</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>74</v>
@@ -8891,10 +8901,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8917,13 +8927,13 @@
         <v>74</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>97</v>
+        <v>246</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -8974,7 +8984,7 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
@@ -8989,7 +8999,7 @@
         <v>95</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>74</v>
@@ -8997,10 +9007,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9011,7 +9021,7 @@
         <v>75</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>74</v>
@@ -9023,13 +9033,13 @@
         <v>74</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9080,13 +9090,13 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>74</v>
@@ -9095,14 +9105,120 @@
         <v>95</v>
       </c>
       <c r="AK69" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK70" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AL69" t="s" s="2">
+      <c r="AL70" t="s" s="2">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL69">
+  <autoFilter ref="A1:AL70">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9112,7 +9228,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI68">
+  <conditionalFormatting sqref="A2:AI69">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T10:02:41+00:00</t>
+    <t>2025-02-04T10:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T10:20:10+00:00</t>
+    <t>2025-02-04T12:30:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T12:30:23+00:00</t>
+    <t>2025-02-04T12:59:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil dérivé de FrHealthcareService pour le cas d'usage agrégateur de la plateforme SAS - cas d'usage CPTS</t>
+    <t>Profil dérivé de FrHealthcareService pour le cas d'usage agrégateur de la plateforme SAS [Cas d'usage CPTS]</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T12:59:01+00:00</t>
+    <t>2025-02-04T15:23:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T15:23:22+00:00</t>
+    <t>2025-02-04T16:00:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T16:00:41+00:00</t>
+    <t>2025-02-05T17:09:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T17:09:50+00:00</t>
+    <t>2025-02-06T08:29:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T08:29:34+00:00</t>
+    <t>2025-02-06T09:04:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:04:57+00:00</t>
+    <t>2025-02-06T09:17:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:17:57+00:00</t>
+    <t>2025-02-06T09:34:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:34:11+00:00</t>
+    <t>2025-02-06T09:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:41:46+00:00</t>
+    <t>2025-02-06T10:00:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T10:00:10+00:00</t>
+    <t>2025-02-06T13:19:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T13:19:14+00:00</t>
+    <t>2025-02-06T13:39:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T13:39:47+00:00</t>
+    <t>2025-02-06T14:18:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T14:18:01+00:00</t>
+    <t>2025-02-06T14:37:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T14:37:01+00:00</t>
+    <t>2025-02-10T09:11:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-10T09:11:56+00:00</t>
+    <t>2025-02-10T10:48:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-10T10:48:04+00:00</t>
+    <t>2025-03-12T10:37:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T10:37:36+00:00</t>
+    <t>2025-03-12T11:02:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T11:02:50+00:00</t>
+    <t>2025-03-13T08:22:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
